--- a/data/georgia_census/kakheti/axmeta/population_total.xlsx
+++ b/data/georgia_census/kakheti/axmeta/population_total.xlsx
@@ -1352,13 +1352,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F367A98D-6DBC-4721-8C53-88BB7CDB7E03}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B05785FD-6E5F-46D7-A6EE-4EBA6EE78F19}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FF175B6-1117-4804-BD89-CA831FF7F89F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27B5C809-4046-4D44-A85F-BD4439085C4C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AB8EA7E-D6FC-405F-8691-8F1A8D618CCA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F2B222A-DFAC-4634-816D-6452A451E913}"/>
 </file>